--- a/pred_ohlcv/54_21/2019-10-28 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 IOST ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>2384629.4319</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2439669.4468</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3131187.4886</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3263337.7403</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3778798.8718</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3773750.0189</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3773750.0189</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4198964.0789</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4345897.1352</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6033426.8397</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>6188424.2788</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6182999.303400001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6701236.263776107</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>11396006.25830887</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10657942.52070887</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10548654.43840887</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>10576933.06430887</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>10576917.17130887</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10714030.36890887</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>10692243.20020887</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>10465966.96800887</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10469566.96800887</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10424126.61850887</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10266110.91140887</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10265709.63700887</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10237656.51290887</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>10235286.84850887</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10158782.91480887</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>12563305.71633683</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>13143450.58403683</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>13152450.58403683</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>12838776.69893683</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>12798373.90953683</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>12911050.36103683</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>12803461.47473683</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>12845493.59033683</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>12589707.36273683</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>12589707.36273683</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>12589717.36273683</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12573217.36273683</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>12573217.36273683</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>12573217.36273683</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>12779263.20153683</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12779263.20153683</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>12781253.20153683</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>12791253.20153683</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 IOST ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>2384629.4319</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2439669.4468</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3131187.4886</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3263337.7403</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3778798.8718</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3773750.0189</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3773750.0189</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4198964.0789</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4345897.1352</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6033426.8397</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>6188424.2788</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6182999.303400001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6701236.263776107</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>8759864.942408867</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>11531587.33910887</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>11396006.25830887</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10657942.52070887</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>10590165.99550887</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10548654.43840887</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>10576933.06430887</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>10576917.17130887</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10714030.36890887</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>10692243.20020887</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>10465966.96800887</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10473144.65560887</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10424126.61850887</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>10266110.91140887</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>10265709.63700887</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>10237656.51290887</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>10235286.84850887</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10158782.91480887</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11624140.84733683</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>12337650.99383683</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>12001443.25863683</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>12563305.71633683</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>13143450.58403683</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>13152450.58403683</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>12838776.69893683</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>12798373.90953683</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>12911050.36103683</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>12803461.47473683</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>12845493.59033683</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>12589707.36273683</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>12589707.36273683</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>12589717.36273683</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12573217.36273683</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>12596112.20033683</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
